--- a/Lab1/second_task.xlsx
+++ b/Lab1/second_task.xlsx
@@ -380,8 +380,39 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -537,11 +568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136064400"/>
-        <c:axId val="-2136057872"/>
+        <c:axId val="765189568"/>
+        <c:axId val="765198272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136064400"/>
+        <c:axId val="765189568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,12 +629,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136057872"/>
+        <c:crossAx val="765198272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136057872"/>
+        <c:axId val="765198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +691,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136064400"/>
+        <c:crossAx val="765189568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1025,8 +1056,39 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1182,11 +1244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133765360"/>
-        <c:axId val="-2133772976"/>
+        <c:axId val="765203168"/>
+        <c:axId val="765200448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133765360"/>
+        <c:axId val="765203168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,12 +1305,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133772976"/>
+        <c:crossAx val="765200448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133772976"/>
+        <c:axId val="765200448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1367,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133765360"/>
+        <c:crossAx val="765203168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1395,7 +1457,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33608700749435411"/>
+          <c:y val="3.3050919607448763E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1660,8 +1729,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4575117192940392E-3"/>
+                  <c:y val="4.461316482445277E-6"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1817,11 +1922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-125804944"/>
-        <c:axId val="-125814192"/>
+        <c:axId val="765198816"/>
+        <c:axId val="765195008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-125804944"/>
+        <c:axId val="765198816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,12 +1983,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-125814192"/>
+        <c:crossAx val="765195008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-125814192"/>
+        <c:axId val="765195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +2045,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-125804944"/>
+        <c:crossAx val="765198816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2296,8 +2401,39 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2453,11 +2589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133768080"/>
-        <c:axId val="-2133763184"/>
+        <c:axId val="765196640"/>
+        <c:axId val="765193376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133768080"/>
+        <c:axId val="765196640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,12 +2650,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133763184"/>
+        <c:crossAx val="765193376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133763184"/>
+        <c:axId val="765193376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +2712,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133768080"/>
+        <c:crossAx val="765196640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2932,8 +3068,39 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3089,11 +3256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133766992"/>
-        <c:axId val="-2133762096"/>
+        <c:axId val="765197184"/>
+        <c:axId val="765191744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133766992"/>
+        <c:axId val="765197184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,12 +3317,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133762096"/>
+        <c:crossAx val="765191744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133762096"/>
+        <c:axId val="765191744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3379,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133766992"/>
+        <c:crossAx val="765197184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3568,8 +3735,39 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3725,11 +3923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133770800"/>
-        <c:axId val="-2133761008"/>
+        <c:axId val="765200992"/>
+        <c:axId val="765196096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133770800"/>
+        <c:axId val="765200992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,12 +3984,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133761008"/>
+        <c:crossAx val="765196096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133761008"/>
+        <c:axId val="765196096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +4046,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133770800"/>
+        <c:crossAx val="765200992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7237,16 +7435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>553251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>121555</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>286195</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>248450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7256</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586721</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7267,16 +7465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>329369</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133528</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>24568</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19229</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594289</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7299,16 +7497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>525210</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>178038</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>249252</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>220409</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63739</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549778</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7331,16 +7529,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>258154</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222546</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>558680</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523073</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7363,16 +7561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>543014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8902</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238213</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>81542</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>531975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7395,16 +7593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>213645</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>284860</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>160232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>514171</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>45933</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>585386</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9123,7 +9321,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
